--- a/Business_in_Jersey_City_Categories.xlsx
+++ b/Business_in_Jersey_City_Categories.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,43 +656,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LC Interpreting Services, LLC</t>
+          <t>Easthill Construction Corp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lydia Callis</t>
+          <t>Vedant Bhanderi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9172105804</v>
+        <v>2018359339</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>info@lcinterpretingservices.com</t>
+          <t>vedant.bhanderi@gmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>01/30/2021;01/30/2021</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>44864</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>344 Grove St #4106</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>35 Journal Square</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Suite 430</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -704,16 +706,12 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>7302</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>http://www.signlanguagenyc.com</t>
-        </is>
-      </c>
+        <v>7306</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>LC Interpreting Services provides high quality interpreting services in American Sign Language, Spanish Sign Language and International Sign. LCIS also provides CART services, also known as Realtime Captioning, for those who prefer speech-to-text translations. Services are available in all five boroughs of New Year City, Long Island, Westchester County, and New Jersey.</t>
+          <t>Easthill Construction Corp. provides general construction services in interior and exterior building renovations and rehabilitation; specializes in demolition and removal work.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -725,20 +723,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Easthill Construction Corp</t>
+          <t>Project Executive Outcomes LLC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vedant Bhanderi</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2018359339</v>
+          <t>Calvin Speight Jr.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>703-254-9538</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vedant.bhanderi@gmail.com</t>
+          <t>calvin@projectexecutiveoutcomes.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -747,22 +747,20 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44864</v>
+        <v>44530</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>35 Journal Square</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Suite 430</t>
-        </is>
+          <t>1 Harborside Place</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -775,12 +773,16 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>7306</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>7311</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://www.projectexecutiveoutcomes.com</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Easthill Construction Corp. provides general construction services in interior and exterior building renovations and rehabilitation; specializes in demolition and removal work.</t>
+          <t>Cost engineering &amp; project controls for infrastructure, energy &amp; environment. Operational excellence through Lean Six Sigma</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -792,44 +794,44 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Project Executive Outcomes LLC</t>
+          <t>Ashira Prossack</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calvin Speight Jr.</t>
+          <t>Ashira Prossack</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>703-254-9538</t>
+          <t>646-535-8517</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>calvin@projectexecutiveoutcomes.com</t>
+          <t>hello@ashiraprossack.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44530</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 Harborside Place</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>204</v>
+          <t>615 Pavonia Avenue</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Apt 4103</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -842,16 +844,16 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7311</v>
+        <v>7306</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://www.projectexecutiveoutcomes.com</t>
+          <t>http://www.ashiraprossack.com</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Cost engineering &amp; project controls for infrastructure, energy &amp; environment. Operational excellence through Lean Six Sigma</t>
+          <t>Ashira works to support the needs of todayâs diverse multi-generational workforce. She helps companies understand, engage, attract, and retain Millennials &amp; Gen Z. Her areas of expertise include employee engagement, communication, leadership training, talent management, and diversity and inclusion strategy.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -863,38 +865,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKCS, LLC</t>
+          <t>Tara Dowdell Group, LLC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jasmin Coronado</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7322594570</v>
+          <t>Tara Dowdell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>201-413-5220</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jasmin.coronado@skcs.biz</t>
+          <t>tara@taradowdellgroup.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44925</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10/31/2022;10/31/2022</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2 2nd Street #1202</t>
+          <t>342 Varick Street</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -913,62 +919,62 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://www.skcs.biz</t>
+          <t>http://www.taradowdellgroup.com</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Information Systems Services; Business Management Services; Program/Project Management Services; Information Technology Expertise</t>
+          <t>Consultants: Marketing, Communications, Organizations, Institutions, Businesses, Public Relations, Messaging, Copywriting, Brand Strategy, Outreach</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ashira Prossack</t>
+          <t>Dynamic Digital Air, LLC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ashira Prossack</t>
+          <t>Djvonne David</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>646-535-8517</t>
+          <t>646-739-4563</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hello@ashiraprossack.com</t>
+          <t>ddavid@dynamicdigitalair.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>02/28/2022;02/28/2022</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>615 Pavonia Avenue</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Apt 4103</t>
-        </is>
-      </c>
+          <t>50 Dey Street, Unit 256</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -984,37 +990,37 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://www.ashiraprossack.com</t>
+          <t>http://www.dynamicdigitalair.com</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Ashira works to support the needs of todayâs diverse multi-generational workforce. She helps companies understand, engage, attract, and retain Millennials &amp; Gen Z. Her areas of expertise include employee engagement, communication, leadership training, talent management, and diversity and inclusion strategy.</t>
+          <t>signage; LED digital signage; advertising signage; static signage; transportation signage; government signage; local municipalities signage; schools signage; libraries. signage</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Motor Vehicle. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BREAKTHROUGH MARKETING TECHNOLOGY LLC</t>
+          <t>R and B Janitorial Co.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pamela Roach</t>
+          <t>Indera DeMine</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2016043600</v>
+        <v>2397455525</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pamela@breakthroughgroup.com</t>
+          <t>rnbjanitorial@gmail.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1024,17 +1030,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08/30/2021;08/30/2021</t>
+          <t>09/29/2022;09/29/2022</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110 East Shearwater Ct.</t>
+          <t>106 Fulton Ave</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1053,39 +1059,37 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://www.breakthroughgroup.com</t>
+          <t>http://www.randbjanitorialsupplies.com</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Marketing &amp; strategy consulting, marketing training,</t>
+          <t>R and B Janitorial is a family owned small business providing janitorial products, paper products, to our clients in the Tri-State area. Registered in the state of NJ, it primarily does businesses in the state &amp; City of NY and is licensed to do business in NY.</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tara Dowdell Group, LLC</t>
+          <t>BREAKTHROUGH MARKETING TECHNOLOGY LLC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tara Dowdell</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>201-413-5220</t>
-        </is>
+          <t>Pamela Roach</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2016043600</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>tara@taradowdellgroup.com</t>
+          <t>pamela@breakthroughgroup.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1095,7 +1099,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10/31/2022;10/31/2022</t>
+          <t>08/30/2021;08/30/2021</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1105,7 +1109,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>342 Varick Street</t>
+          <t>110 East Shearwater Ct.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1120,43 +1124,41 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7302</v>
+        <v>7305</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://www.taradowdellgroup.com</t>
+          <t>http://www.breakthroughgroup.com</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Consultants: Marketing, Communications, Organizations, Institutions, Businesses, Public Relations, Messaging, Copywriting, Brand Strategy, Outreach</t>
+          <t>Marketing &amp; strategy consulting, marketing training,</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dynamic Digital Air, LLC</t>
+          <t>LC Interpreting Services, LLC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Djvonne David</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>646-739-4563</t>
-        </is>
+          <t>Lydia Callis</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9172105804</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ddavid@dynamicdigitalair.com</t>
+          <t>info@lcinterpretingservices.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1166,17 +1168,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02/28/2022;02/28/2022</t>
+          <t>01/30/2021;01/30/2021</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>50 Dey Street, Unit 256</t>
+          <t>344 Grove St #4106</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1191,61 +1193,59 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7306</v>
+        <v>7302</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://www.dynamicdigitalair.com</t>
+          <t>http://www.signlanguagenyc.com</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>signage; LED digital signage; advertising signage; static signage; transportation signage; government signage; local municipalities signage; schools signage; libraries. signage</t>
+          <t>LC Interpreting Services provides high quality interpreting services in American Sign Language, Spanish Sign Language and International Sign. LCIS also provides CART services, also known as Realtime Captioning, for those who prefer speech-to-text translations. Services are available in all five boroughs of New Year City, Long Island, Westchester County, and New Jersey.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Motor Vehicle. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R and B Janitorial Co.</t>
+          <t>Area Surveying LLC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Indera DeMine</t>
+          <t>Leonel Canjani</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2397455525</v>
+        <v>2016281958</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rnbjanitorial@gmail.com</t>
+          <t>areasurveying@gmail.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>09/29/2022;09/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45106</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>106 Fulton Ave</t>
+          <t>71 Western Avenue</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1260,62 +1260,60 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7305</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>http://www.randbjanitorialsupplies.com</t>
-        </is>
-      </c>
+        <v>7307</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>R and B Janitorial is a family owned small business providing janitorial products, paper products, to our clients in the Tri-State area. Registered in the state of NJ, it primarily does businesses in the state &amp; City of NY and is licensed to do business in NY.</t>
+          <t>Land surveying, hydrographic surveying, construction layout.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Area Surveying LLC</t>
+          <t>Ignitem, Inc.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leonel Canjani</t>
+          <t>Kimberlee Willims</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2016281958</v>
+        <v>2017447150</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>areasurveying@gmail.com</t>
+          <t>klwilliams@ignitem.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45106</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>71 Western Avenue</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>31 River Court</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Apt 1005</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -1327,17 +1325,21 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7307</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>7310</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://www.ignitem.com</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Land surveying, hydrographic surveying, construction layout.</t>
+          <t>Guides leaders on how to execute major strategic change initiatives, especially those requiring behavior change.  Provides strategy execution and change management training at all levels, and consulting such as executive facilitation and change management planning.</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
@@ -1404,50 +1406,48 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |IT. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ignitem, Inc.</t>
+          <t>SKCS, LLC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kimberlee Willims</t>
+          <t>Jasmin Coronado</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2017447150</v>
+        <v>7322594570</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>klwilliams@ignitem.com</t>
+          <t>jasmin.coronado@skcs.biz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>44925</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31 River Court</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Apt 1005</t>
-        </is>
-      </c>
+          <t>2 2nd Street #1202</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -1459,21 +1459,21 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>7310</v>
+        <v>7302</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://www.ignitem.com</t>
+          <t>http://www.skcs.biz</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Guides leaders on how to execute major strategic change initiatives, especially those requiring behavior change.  Provides strategy execution and change management training at all levels, and consulting such as executive facilitation and change management planning.</t>
+          <t>Information Systems Services; Business Management Services; Program/Project Management Services; Information Technology Expertise</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |IT. </t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Robinson Construction LLC</t>
+          <t>Toral Welding, Inc.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Larry ROBINSON</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>201-679-1160</t>
-        </is>
+          <t>Rafael Toral Jr.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2013861330</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Larryrobinson@optonline.net</t>
+          <t>tweld327@aol.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1711,16 +1709,16 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>43799</v>
+        <v>44591</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>184 Pearsall Avenue</t>
+          <t>327 Manhattan Ave</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1735,12 +1733,12 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>7305</v>
+        <v>7307</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Robinson Construction LLC provides laborers to clean commercial and residential construction projects, specifically removing of debris.</t>
+          <t>We fabricate and install structural and micellaneous steel products.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1752,29 +1750,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Toral Welding, Inc.</t>
+          <t>Linda Pedroso Photography, LLC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rafael Toral Jr.</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2013861330</v>
+          <t>Linda Pedroso</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>201-875-7601</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>tweld327@aol.com</t>
+          <t>info@lindapedroso.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44591</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12/31/2024;12/31/2024</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1783,7 +1785,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>327 Manhattan Ave</t>
+          <t>290 Halladay Street</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1798,12 +1800,16 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>7307</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>7093</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://www.lindapedroso.com</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>We fabricate and install structural and micellaneous steel products.</t>
+          <t>A fun, creative and happy photographer who provides photography serve such as on site and in studio shooting. Create a unique and customized photo concept and package for each clients. I serve real estate, portraits an events photography. I offer prints, customized USB 9 photobooks if needed. I also offer 3D, floor planning and virtual staging for real estate clients.</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1815,42 +1821,36 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Linda Pedroso Photography, LLC</t>
+          <t>Jewel Electric, LLC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Linda Pedroso</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>201-875-7601</t>
-        </is>
+          <t>Julie Sczesnik</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2016531613</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>info@lindapedroso.com</t>
+          <t>Jss@jewelelectric.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>12/31/2024;12/31/2024</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>290 Halladay Street</t>
+          <t>455 3rd Street</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7093</v>
+        <v>7302</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://www.lindapedroso.com</t>
+          <t>http://www.jewelelectric.com</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>A fun, creative and happy photographer who provides photography serve such as on site and in studio shooting. Create a unique and customized photo concept and package for each clients. I serve real estate, portraits an events photography. I offer prints, customized USB 9 photobooks if needed. I also offer 3D, floor planning and virtual staging for real estate clients.</t>
+          <t>Full line distributors of electric supplies and equipment.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1886,39 +1886,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jewel Electric, LLC</t>
+          <t>MSquare Systems, Inc.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Julie Sczesnik</t>
+          <t>Muthu Natarajan</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2016531613</v>
+        <v>2012906728</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jss@jewelelectric.com</t>
+          <t>muthu.n@msquaresystems.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>44226</v>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>455 3rd Street</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>35 Journal Square</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Suite 480</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -1930,16 +1936,16 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>7302</v>
+        <v>7306</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://www.jewelelectric.com</t>
+          <t>http://www.msguaresystems.com</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Full line distributors of electric supplies and equipment.</t>
+          <t>MSquare Systems is an IT consulting &amp; staffing organization. MSquare provides high quality IT development &amp; responsive solutions for our customers. MSquare provides IT application development, project management, enterprise resource planning, database development, quality assurance &amp; Testing.</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1951,20 +1957,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MSquare Systems, Inc.</t>
+          <t>Adams Electric Sales, Inc.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Muthu Natarajan</t>
+          <t>Robert Adams</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2012906728</v>
+        <v>2017923005</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>muthu.n@msquaresystems.com</t>
+          <t>adams.elec@gmail.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1973,23 +1979,19 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44226</v>
+        <v>44134</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>35 Journal Square</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Suite 480</t>
-        </is>
-      </c>
+          <t>15 Wilkinson Avenue</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2001,16 +2003,12 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7306</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>http://www.msguaresystems.com</t>
-        </is>
-      </c>
+        <v>7305</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MSquare Systems is an IT consulting &amp; staffing organization. MSquare provides high quality IT development &amp; responsive solutions for our customers. MSquare provides IT application development, project management, enterprise resource planning, database development, quality assurance &amp; Testing.</t>
+          <t>Supplying electrical equipment, cable, all materials related to electrical. Boxes, wiring devices, panel boards, circuit breakers, transformers, cable, cable tires, etc.</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2022,20 +2020,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PMY Construction Corp.</t>
+          <t>AED Inc.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deepak Patel</t>
+          <t>Reginald Waters</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2018660409</v>
+        <v>3016832112</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>pmyconstruction@gmail.com</t>
+          <t>info@aedworld.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2044,19 +2042,23 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45045</v>
+        <v>43888</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>115 Hague Street</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>101 Hudson Street</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>21st Floor</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2068,16 +2070,16 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>7307</v>
+        <v>7032</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://www.pmyconstruction.com</t>
+          <t>http://www.aedworld.com</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>General construction, concrete work, masonry work, site work, asphalt paving, interior finishes, waterproofing, painting, fencing work, landscaping, excavation and grading, site furnishings, carpentry work.</t>
+          <t>Our project expertise is commercial, water/wastewater, educational industrial, retail, hospitality stadiums and Healthcare facilities. Our services include Commissioning and retro-commissioning, electrical, energy analysis, facility assessments, mechanical plumbing, fire plumbing, HVAC, and LEED Design.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2089,41 +2091,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Adams Electric Sales, Inc.</t>
+          <t>Hydrotechnology Consultants, Inc.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert Adams</t>
+          <t>Maria Coler</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2017923005</v>
+        <v>2012221540</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>adams.elec@gmail.com</t>
+          <t>mcoler@digbrowngogreen.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44134</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15 Wilkinson Avenue</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>115 Christopher Columbus Drive</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Suite 402</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2135,12 +2139,16 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>7305</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>7302</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://digbrowngogreen.com</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Supplying electrical equipment, cable, all materials related to electrical. Boxes, wiring devices, panel boards, circuit breakers, transformers, cable, cable tires, etc.</t>
+          <t>Hydrotechnology Consultants, Inc. (HCI) specializes in the assessment and remediation of environmentally impaired properties. HCI performs environmental due diligence site investigations, remediation system design and implementation, expert testimony, environmental valuations and environmental forensic studies.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2152,20 +2160,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hydrotechnology Consultants, Inc.</t>
+          <t>RVM Enterprises, Inc.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Maria Coler</t>
+          <t>Cheryl Brunetti</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2012221540</v>
+        <v>2126931525</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>mcoler@digbrowngogreen.com</t>
+          <t>cbrunetti@rvminc.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2181,14 +2189,10 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>115 Christopher Columbus Drive</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Suite 402</t>
-        </is>
-      </c>
+          <t>525 Washington Blvd., Suite 910</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2200,16 +2204,16 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>7302</v>
+        <v>7310</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://digbrowngogreen.com</t>
+          <t>http://www.rvminc.com</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Hydrotechnology Consultants, Inc. (HCI) specializes in the assessment and remediation of environmentally impaired properties. HCI performs environmental due diligence site investigations, remediation system design and implementation, expert testimony, environmental valuations and environmental forensic studies.</t>
+          <t>RVM has been the preferred provider of eDiscovery and litigation support consulting services to leading global corporations and Am Law 100 firms for over 20 years. Its experienced professionals serve global clients across a variety of industries in both the private and public sectors. RVM is a certified woman-owned business headquartered in Jersey City, New Jersey with a U.K. hub in London.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2221,36 +2225,38 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RVM Enterprises, Inc.</t>
+          <t>Melissa Ip</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cheryl Brunetti</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2126931525</v>
-      </c>
+          <t>Melissa Ip</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>cbrunetti@rvminc.com</t>
+          <t>melissa.ry.ip@gmail.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>03/30/2023;03/30/2023</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>525 Washington Blvd., Suite 910</t>
+          <t>3 Magnolia Ave, Apt 7</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2265,39 +2271,39 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7310</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>http://www.rvminc.com</t>
-        </is>
-      </c>
+        <v>7306</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>RVM has been the preferred provider of eDiscovery and litigation support consulting services to leading global corporations and Am Law 100 firms for over 20 years. Its experienced professionals serve global clients across a variety of industries in both the private and public sectors. RVM is a certified woman-owned business headquartered in Jersey City, New Jersey with a U.K. hub in London.</t>
+          <t>Communications and graphic design</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Melissa Ip</t>
+          <t>Haas Media, LLC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Melissa Ip</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Kim Haas</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>862-368-8462</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>melissa.ry.ip@gmail.com</t>
+          <t>Kim@haas-media.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2307,17 +2313,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>03/30/2023;03/30/2023</t>
+          <t>12/31/2020;12/31/2020</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3 Magnolia Ave, Apt 7</t>
+          <t>267 3rd Street</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2332,62 +2338,60 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>7306</v>
+        <v>7302</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Communications and graphic design</t>
+          <t>Haas Media provides public outreach, communications, training and translation services. The firm also provides educational initiatives. Specific services include: public outreach, focus groups, stakeholder meetings/presentation skills. Translation services include but are not limited to Arabic, Chinese, French Creole, Hindi, Italian, Korean, Portuguese, Russian and Spanish.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Haas Media, LLC</t>
+          <t>Stand Up Speak Out Productions</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kim Haas</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>862-368-8462</t>
-        </is>
+          <t>Susan Jackson</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6094326346</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kim@haas-media.com</t>
+          <t>susan@standup-speakout.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>12/31/2020;12/31/2020</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>267 3rd Street</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>351 Palisade Avenue</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Suite 1R</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2399,60 +2403,62 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7302</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>7307</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://www.standup-speakout.com</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Haas Media provides public outreach, communications, training and translation services. The firm also provides educational initiatives. Specific services include: public outreach, focus groups, stakeholder meetings/presentation skills. Translation services include but are not limited to Arabic, Chinese, French Creole, Hindi, Italian, Korean, Portuguese, Russian and Spanish.</t>
+          <t>Multi-media presentations on bias awareness for professional and student groups, to support workplace diversity and Inclusion initiatives, as well as Safe Schools for All.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Stand Up Speak Out Productions</t>
+          <t>PMY Construction Corp.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Susan Jackson</t>
+          <t>Deepak Patel</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6094326346</v>
+        <v>2018660409</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>susan@standup-speakout.com</t>
+          <t>pmyconstruction@gmail.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45045</v>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>351 Palisade Avenue</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Suite 1R</t>
-        </is>
-      </c>
+          <t>115 Hague Street</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2468,37 +2474,39 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://www.standup-speakout.com</t>
+          <t>http://www.pmyconstruction.com</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Multi-media presentations on bias awareness for professional and student groups, to support workplace diversity and Inclusion initiatives, as well as Safe Schools for All.</t>
+          <t>General construction, concrete work, masonry work, site work, asphalt paving, interior finishes, waterproofing, painting, fencing work, landscaping, excavation and grading, site furnishings, carpentry work.</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AED Inc.</t>
+          <t>Robinson Construction LLC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Reginald Waters</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>3016832112</v>
+          <t>Larry ROBINSON</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>201-679-1160</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>info@aedworld.com</t>
+          <t>Larryrobinson@optonline.net</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2507,7 +2515,7 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>43888</v>
+        <v>43799</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2516,14 +2524,10 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>101 Hudson Street</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>21st Floor</t>
-        </is>
-      </c>
+          <t>184 Pearsall Avenue</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2535,62 +2539,66 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>7032</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>http://www.aedworld.com</t>
-        </is>
-      </c>
+        <v>7305</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Our project expertise is commercial, water/wastewater, educational industrial, retail, hospitality stadiums and Healthcare facilities. Our services include Commissioning and retro-commissioning, electrical, energy analysis, facility assessments, mechanical plumbing, fire plumbing, HVAC, and LEED Design.</t>
+          <t>Robinson Construction LLC provides laborers to clean commercial and residential construction projects, specifically removing of debris.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CNM Group Inc.</t>
+          <t>Blue Pearls Consulting LLC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chalermlarp Mahachai</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2016531531</v>
+          <t>Melanie Hart</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>718-306-2552</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cnmgroup@aol.com</t>
+          <t>BluePearlsConsulting@gmail.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>44439</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>08/31/2024;08/31/2024</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>87 Thorne Street</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>16 Elizabeth Street</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Apt #1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2602,12 +2610,12 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Architecture and drafting services and shop drawing.</t>
+          <t>Executive individual and business consultant.  Consulting services include business and program development; strategic planning; facilitation; organization and operating assessment; facilitation; equity and inclusion training; capacity building; program and project management; organization and operating assessments; and individual management and leadership coaching.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2619,20 +2627,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Domino Systems, Inc.</t>
+          <t>CNM Group Inc.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rahul Rao</t>
+          <t>Chalermlarp Mahachai</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7327187965</v>
+        <v>2016531531</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rrao@dominosys.com</t>
+          <t>cnmgroup@aol.com</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2641,7 +2649,7 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44742</v>
+        <v>44439</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2650,7 +2658,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>201 Marin Blvd, #501</t>
+          <t>87 Thorne Street</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2665,46 +2673,48 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>7302</v>
+        <v>7307</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>IT and Technology Solutions and Services, Software Development, Analytics, Machine Learning and AI, Business Intelligence, Program/Project Management, Staff Augmentation, Data Analysis, Financial and Accounting Analysis, Strategy, Lean Six Sigma, Marketing and Sales Services</t>
+          <t>Architecture and drafting services and shop drawing.</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Infojini Inc.</t>
+          <t>Creative Cinemas NY LLC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sandeep Harjani</t>
+          <t>Bhuvaneswari Madhalam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4432570086</v>
+        <v>2019365625</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>statebids@infojiniconsulting.com</t>
+          <t>bhuvana.madalam@gmail.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>44956</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10/31/2021;10/31/2021</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2713,14 +2723,10 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>88 Morgan Street</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Suite 4805</t>
-        </is>
-      </c>
+          <t>88 Western Avenue</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2732,66 +2738,62 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>7302</v>
+        <v>7307</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://www.infojiniconsulting.com</t>
+          <t>http://www.CreativeCinemaz.com</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>IT consulting, computer software consulting, E-commerce consulting, human relations consulting, management consulting, project management, services, software maintenance / support, government consulting, business management services, computer management services, E-commerce software development services, project management, programming services, computer.</t>
+          <t>We do media distribution, movie production, rental camera equipment, and movie work.</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance.  |Heath Services. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Reign Maker Visual Communication LLC</t>
+          <t>Domino Systems, Inc.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jessica Chosid</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>201-982-3114</t>
-        </is>
+          <t>Rahul Rao</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7327187965</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jessica@goreignmaker.com</t>
+          <t>rrao@dominosys.com</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>44742</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>334 Ogden Avenue</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Suite 6</t>
-        </is>
-      </c>
+          <t>201 Marin Blvd, #501</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Jersey City</t>
@@ -2803,90 +2805,370 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>7307</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://www.goreignmaker.com</t>
-        </is>
-      </c>
+        <v>7302</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>UAS or Drone imagery and data capture for inspection, asset management and engineering design tasks.</t>
+          <t>IT and Technology Solutions and Services, Software Development, Analytics, Machine Learning and AI, Business Intelligence, Program/Project Management, Staff Augmentation, Data Analysis, Financial and Accounting Analysis, Strategy, Lean Six Sigma, Marketing and Sales Services</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Creative Cinemas NY LLC</t>
+          <t>Infojini Inc.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bhuvaneswari Madhalam</t>
+          <t>Sandeep Harjani</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2019365625</v>
+        <v>4432570086</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>bhuvana.madalam@gmail.com</t>
+          <t>statebids@infojiniconsulting.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>88 Morgan Street</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Suite 4805</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>7302</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://www.infojiniconsulting.com</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>IT consulting, computer software consulting, E-commerce consulting, human relations consulting, management consulting, project management, services, software maintenance / support, government consulting, business management services, computer management services, E-commerce software development services, project management, programming services, computer.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Finance &amp; Insurance.  |Heath Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Reign Maker Visual Communication LLC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica Chosid</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>201-982-3114</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>jessica@goreignmaker.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>334 Ogden Avenue</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Suite 6</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>7307</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.goreignmaker.com</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>UAS or Drone imagery and data capture for inspection, asset management and engineering design tasks.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TPT STUDIO INC.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sanny Ng</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3473665130</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>sng@tptstudio.com</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>MBE,WBE</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>10/31/2021;10/31/2021</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>02/27/2023;02/27/2023</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>ASIAN</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>88 Western Avenue</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Jersey City</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>7307</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>http://www.CreativeCinemaz.com</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>We do media distribution, movie production, rental camera equipment, and movie work.</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>77 Hudson St</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>#4403</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>7302</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Trans-disciplinary Design Studio with specialties in Computational Design, BIM, and GIS</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mercer Planning Associates</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Courtenay Mercer</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7323541316</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Cmercer@mercerplanning.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>344 Grove Street</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>#256</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>7302</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://www.mercerplanning.com</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Mercer Planning Associates provides comprehensive planning services to public sector clients seeking to implement sustainable planning principles.</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services.  |IT. </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bonova Advisory, Inc.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Breana Patel</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6463847886</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>breana@bonova.net</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10/30/2021;10/30/2021</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>116 Brunswick Street</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t># 2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>7302</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://www.bonova.net</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Bonova Advisory, Inc. is a management service provider. Our areas of expertise are business transformation, regulatory compliance, risk management and cost optimization.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Transportation. </t>
         </is>
       </c>
     </row>
